--- a/results/I3_N5_M3_T45_C200_DepLowerLeft_s3_P1_res.xlsx
+++ b/results/I3_N5_M3_T45_C200_DepLowerLeft_s3_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1172.127503892229</v>
+        <v>1083.518829430944</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01199984550476074</v>
+        <v>0.005000114440917969</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.38703688534934</v>
+        <v>5.575377337951518</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.571887095804371</v>
+        <v>5.441553087125036</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>723.7700000000037</v>
+        <v>894</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>433.52</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.469817807045693</v>
+        <v>42.53018219295431</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>38.9259431076176</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -953,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20.79579898937524</v>
+        <v>27.30976054153059</v>
       </c>
     </row>
     <row r="7">
@@ -961,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20.4627824732683</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -977,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
@@ -1031,10 +1031,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1059,10 +1059,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1073,10 +1073,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1087,10 +1087,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1129,10 +1129,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1143,10 +1143,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1157,10 +1157,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
@@ -1268,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>50.75499999999964</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8">
@@ -1279,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>48.12499999999964</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>49.95499999999964</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10">
@@ -1301,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>48.15499999999964</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11">
@@ -1312,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>48.96999999999964</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12">
@@ -1323,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>129.2649999999994</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13">
@@ -1334,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>138.09</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14">
@@ -1345,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>128.1</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15">
@@ -1356,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>134.85</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16">
@@ -1367,7 +1367,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>131.925</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17">
@@ -1378,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>269.7150000000003</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1389,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>270.3750000000009</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -1400,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>267.3400000000002</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1411,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>278.0950000000003</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -1422,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>276.3600000000001</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>230.0250000000004</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
@@ -1444,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>238.795000000001</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
@@ -1455,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>231.7250000000003</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
@@ -1466,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3750000000004</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
@@ -1477,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>240.95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
@@ -1488,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>168.3350000000002</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28">
@@ -1499,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>176.1300000000007</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29">
@@ -1510,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>165.435</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30">
@@ -1521,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>182.6750000000001</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31">
@@ -1532,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>179.375</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32">
@@ -1543,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>269.7150000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1554,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>270.3750000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1565,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>267.3400000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1576,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>278.0950000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1587,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>276.3600000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1598,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38">
@@ -1609,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39">
@@ -1620,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40">
@@ -1631,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41">
@@ -1642,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42">
@@ -1744,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>69.71500000000032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1755,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>70.37500000000091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1766,7 +1766,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>67.3400000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1777,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>78.09500000000031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1788,7 +1788,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>76.36000000000013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1799,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -1810,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
@@ -1821,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
@@ -1832,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -1843,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
@@ -1945,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>14.965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1956,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>11.315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1967,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>19.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1978,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>16.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1989,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>14.215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2000,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2011,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2022,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>2.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2033,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>3.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2044,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -2066,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -2077,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -2088,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -2099,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2110,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>5.63</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2121,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>13.54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -2132,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>14.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2143,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2154,7 +2154,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.01</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2165,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2176,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2187,7 +2187,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2198,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2209,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2272,7 +2272,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2349,7 +2349,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
